--- a/data/trans_camb/P42_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P42_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-9,48</t>
+          <t>-2,1</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-13,34</t>
+          <t>-5,31</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-11,5</t>
+          <t>-5,4</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-8,15</t>
+          <t>-6,34</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-14,2</t>
+          <t>-3,82</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-13,07</t>
+          <t>-7,25</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-8,9</t>
+          <t>-6,72</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-13,76</t>
+          <t>-10,08</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-12,42</t>
+          <t>-3,04</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-6,38</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-6,18</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-8,38</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-19,16; -2,85</t>
+          <t>-7,23; 2,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-22,73; -6,7</t>
+          <t>-10,37; -1,86</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-21,01; -3,5</t>
+          <t>-10,43; -1,97</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-16,86; -0,23</t>
+          <t>-11,65; -3,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-21,72; -7,91</t>
+          <t>-9,5; 1,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-20,92; -6,24</t>
+          <t>-13,05; -2,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-15,57; -3,46</t>
+          <t>-13,04; -2,1</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-19,93; -8,61</t>
+          <t>-15,79; -6,3</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-19,27; -7,07</t>
+          <t>-7,29; 0,85</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-10,39; -3,41</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-10,39; -3,14</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-11,98; -5,71</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-61,43%</t>
+          <t>-33,09%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-86,46%</t>
+          <t>-83,76%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-74,53%</t>
+          <t>-85,17%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-40,63%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-70,84%</t>
+          <t>-37,85%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-65,21%</t>
+          <t>-71,95%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-50,16%</t>
+          <t>-66,66%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-77,56%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-70,01%</t>
+          <t>-36,25%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-76,22%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-73,83%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-85,22; -18,02</t>
+          <t>-78,07; 88,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-97,84; -57,53</t>
+          <t>-100,0; -8,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-94,64; -3,13</t>
+          <t>-100,0; -15,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-67,47; 1,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-86,08; -44,96</t>
+          <t>-71,86; 39,31</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-82,95; -34,49</t>
+          <t>-90,55; -25,01</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-68,88; -20,71</t>
+          <t>-87,59; -18,31</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-88,42; -57,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-86,26; -41,97</t>
+          <t>-66,27; 18,36</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-91,41; -49,58</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-89,9; -46,11</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-7,97</t>
+          <t>-3,64</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-12,4</t>
+          <t>-7,25</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-13,12</t>
+          <t>-7,33</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-5,69</t>
+          <t>-8,74</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-11,24</t>
+          <t>-1,2</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-11,08</t>
+          <t>-2,48</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-6,95</t>
+          <t>-2,41</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-11,85</t>
+          <t>-3,02</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-12,19</t>
+          <t>-2,36</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-4,68</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-4,68</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-5,68</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-16,15; -0,38</t>
+          <t>-9,69; 1,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-20,7; -6,18</t>
+          <t>-12,63; -2,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-21,63; -6,77</t>
+          <t>-12,74; -2,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-14,09; 1,52</t>
+          <t>-14,32; -4,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-18,07; -5,65</t>
+          <t>-4,55; 1,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-18,52; -5,53</t>
+          <t>-5,72; -0,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-13,13; -1,9</t>
+          <t>-5,61; 0,09</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-17,74; -7,87</t>
+          <t>-7,04; -1,09</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-17,56; -7,82</t>
+          <t>-5,75; 0,99</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-7,93; -2,2</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-7,91; -2,17</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-8,87; -3,49</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-55,28%</t>
+          <t>-41,62%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-85,98%</t>
+          <t>-82,95%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-90,99%</t>
+          <t>-83,91%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-47,36%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-93,62%</t>
+          <t>-39,62%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-92,27%</t>
+          <t>-81,94%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-52,1%</t>
+          <t>-79,76%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-88,83%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-91,38%</t>
+          <t>-41,48%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-82,34%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-82,37%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-81,19; 7,12</t>
+          <t>-78,13; 43,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-96,49; -45,08</t>
+          <t>-100,0; -15,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -56,07</t>
+          <t>-100,0; -19,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-84,51; 32,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -57,07</t>
+          <t>-100,0; 222,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -51,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-76,22; -16,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-97,47; -71,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-98,02; -74,26</t>
+          <t>-73,57; 31,13</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-95,72; -36,77</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-95,74; -35,19</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,45</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-7,8</t>
+          <t>-3,79</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-7,8</t>
+          <t>-3,79</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-11,59</t>
+          <t>-3,79</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-16,05</t>
+          <t>-2,42</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-16,05</t>
+          <t>-4,98</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-6,32</t>
+          <t>-4,98</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-11,3</t>
+          <t>-4,98</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-11,3</t>
+          <t>-1,11</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-4,38</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-4,38</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-4,38</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-15,5; 12,67</t>
+          <t>-9,4; 14,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-25,22; 0,0</t>
+          <t>-18,74; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-25,22; 0,0</t>
+          <t>-18,74; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-29,83; 3,67</t>
+          <t>-18,74; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-37,17; -4,14</t>
+          <t>-12,67; 5,1</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-36,91; -4,11</t>
+          <t>-15,51; 0,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-16,41; 6,5</t>
+          <t>-15,51; 0,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-22,37; -4,07</t>
+          <t>-15,51; 0,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-23,17; -4,44</t>
+          <t>-8,07; 5,85</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-12,55; -1,08</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-12,55; -1,08</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-12,55; -1,08</t>
         </is>
       </c>
     </row>
@@ -1170,7 +1344,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-31,36%</t>
+          <t>4,88%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1185,30 +1359,45 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-72,25%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>-48,55%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
+      <c r="I14" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-55,88%</t>
-        </is>
-      </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-25,29%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
         </is>
@@ -1253,7 +1442,7 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 266,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1262,6 +1451,21 @@
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-8,1</t>
+          <t>-2,46</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-12,38</t>
+          <t>-5,91</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-11,79</t>
+          <t>-5,99</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-7,51</t>
+          <t>-7,02</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-13,2</t>
+          <t>-2,67</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-12,62</t>
+          <t>-5,1</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-7,83</t>
+          <t>-4,83</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-12,78</t>
+          <t>-6,74</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-12,25</t>
+          <t>-2,57</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-5,48</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-5,39</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-6,87</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-14,04; -3,13</t>
+          <t>-5,73; 1,3</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-18,19; -8,32</t>
+          <t>-9,1; -2,96</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-17,24; -6,92</t>
+          <t>-9,13; -3,05</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-13,31; -2,51</t>
+          <t>-9,95; -4,45</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-17,95; -8,47</t>
+          <t>-6,22; 0,55</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-18,18; -8,25</t>
+          <t>-8,46; -2,68</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-12,01; -4,32</t>
+          <t>-8,18; -2,42</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-16,52; -9,41</t>
+          <t>-9,64; -4,54</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-15,87; -8,8</t>
+          <t>-5,37; -0,51</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-7,75; -3,69</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-7,67; -3,52</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-9,08; -5,41</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-57,08%</t>
+          <t>-35,1%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-87,23%</t>
+          <t>-84,14%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-83,09%</t>
+          <t>-85,36%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-45,13%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-79,34%</t>
+          <t>-39,57%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-75,88%</t>
+          <t>-75,72%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-51,01%</t>
+          <t>-71,66%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-83,3%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-79,82%</t>
+          <t>-37,46%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-79,8%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-78,48%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -1439,59 +1688,81 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-76,75; -25,71</t>
+          <t>-66,26; 24,66</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-95,73; -70,06</t>
+          <t>-95,79; -52,37</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-94,56; -53,22</t>
+          <t>-96,06; -53,55</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-66,16; -17,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-89,73; -62,25</t>
+          <t>-69,59; 21,54</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-87,91; -56,12</t>
+          <t>-91,57; -46,26</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-66,43; -31,34</t>
+          <t>-87,74; -37,05</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-90,36; -71,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-87,98; -65,37</t>
+          <t>-62,94; -8,32</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-90,26; -61,55</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-88,89; -59,91</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
